--- a/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -874,7 +874,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.03973949558603174</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.04271446676536074</v>
+        <v>0.04271446676536073</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03179855047024216</v>
+        <v>0.03258599926105577</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02971314641452566</v>
+        <v>0.02999245487746756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0349597043026262</v>
+        <v>0.03479416681471441</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06122236869488858</v>
+        <v>0.06238742582772024</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05072283558005018</v>
+        <v>0.05111463850243445</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05236476648698953</v>
+        <v>0.05288196719112073</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.03663753751353708</v>
+        <v>0.03663753751353709</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03773289376810063</v>
+        <v>0.03773289376810062</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03719360185213319</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0257550871763739</v>
+        <v>0.02616145003620559</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02908661096920724</v>
+        <v>0.02885752174777558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03049720275615727</v>
+        <v>0.03005529788696753</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04987189571165725</v>
+        <v>0.05070331761123723</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04858795083443398</v>
+        <v>0.04893447476190101</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04606318264636486</v>
+        <v>0.04616975631779565</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.04974480551972467</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0514961924599409</v>
+        <v>0.05149619245994089</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03788127523121618</v>
+        <v>0.03881559845190558</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03860965869608323</v>
+        <v>0.03790339952836503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04103616518963717</v>
+        <v>0.04143520093911178</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07139183573461103</v>
+        <v>0.07230520300368308</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0653252446840983</v>
+        <v>0.06524719767484607</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06286323173346083</v>
+        <v>0.06226565142356401</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.04906129509218453</v>
+        <v>0.04906129509218454</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.04179690784612908</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.04519903388812292</v>
+        <v>0.04519903388812291</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03815547833543511</v>
+        <v>0.03639676227429309</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0322356718048886</v>
+        <v>0.03303631400319677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03756704898588711</v>
+        <v>0.03745187372145686</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06458135807304975</v>
+        <v>0.06225244089929836</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05235834163667313</v>
+        <v>0.05258716581398246</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05341124441550926</v>
+        <v>0.05344384106767729</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.04569654256769697</v>
+        <v>0.04569654256769698</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.0419652390601206</v>
+        <v>0.04196523906012059</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.04377038503102697</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03852676153307166</v>
+        <v>0.03881968156981967</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03661132277906447</v>
+        <v>0.03731273843166451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03933987689343808</v>
+        <v>0.03960369249466342</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05268756337736302</v>
+        <v>0.05320177167037374</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04765435471996157</v>
+        <v>0.04744086703201664</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04785496954853194</v>
+        <v>0.04840834539789479</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20972</v>
+        <v>21491</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20982</v>
+        <v>21179</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>47744</v>
+        <v>47518</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40378</v>
+        <v>41146</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35818</v>
+        <v>36095</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>71514</v>
+        <v>72220</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>26172</v>
+        <v>26585</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>30476</v>
+        <v>30236</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>62945</v>
+        <v>62033</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>50679</v>
+        <v>51524</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50910</v>
+        <v>51273</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>95073</v>
+        <v>95293</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>29320</v>
+        <v>30044</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>30708</v>
+        <v>30146</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>64400</v>
+        <v>65026</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>55258</v>
+        <v>55965</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51956</v>
+        <v>51894</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>98655</v>
+        <v>97717</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>36170</v>
+        <v>34503</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>34691</v>
+        <v>35553</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>76041</v>
+        <v>75807</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>61220</v>
+        <v>59013</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>56346</v>
+        <v>56593</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>108111</v>
+        <v>108177</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>130902</v>
+        <v>131897</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>132732</v>
+        <v>135275</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>276289</v>
+        <v>278142</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>179015</v>
+        <v>180762</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>172768</v>
+        <v>171994</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>336091</v>
+        <v>339978</v>
       </c>
     </row>
     <row r="24">
